--- a/数据整理/stocks/A股/上证主板/603737-三棵树.xlsx
+++ b/数据整理/stocks/A股/上证主板/603737-三棵树.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,20 +512,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.93</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.41</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8468</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,216 +550,296 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.93</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.41</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.8468</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0669</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4444</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>001152</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>融通新区域新经济灵活配置混合</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>94.30</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.33</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3299</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>001437</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>易方达瑞享灵活配置混合I</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>94.49</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>5.40</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001438</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008382</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>融通产业趋势股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010153</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>94.61</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010154</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002989</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>融通通乾研究精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.92</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003343</t>
+          <t>002989</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华弘惠灵活配置混合A</t>
+          <t>融通通乾研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.28</t>
+          <t>19.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5205</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -818,26 +938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003344</t>
+          <t>460005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华弘惠灵活配置混合C</t>
+          <t>华泰柏瑞价值增长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.28</t>
+          <t>20.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -846,26 +976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003857</t>
+          <t>008382</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源周期优选灵活配置混合A</t>
+          <t>融通产业趋势股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6588</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003858</t>
+          <t>160610</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源周期优选灵活配置混合C</t>
+          <t>鹏华动力增长混合(LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6471</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>460005</t>
+          <t>008528</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞价值增长混合A</t>
+          <t>华泰柏瑞质量成长混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87.73</t>
+          <t>12.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4788</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010037</t>
+          <t>001069</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞价值增长混合C</t>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>87.73</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>206012</t>
+          <t>001437</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华价值精选股票</t>
+          <t>易方达瑞享灵活配置混合I</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001662</t>
+          <t>001438</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信沪港深研究精选灵活配置混合</t>
+          <t>易方达瑞享灵活配置混合E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.09</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000431</t>
+          <t>206012</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华品牌传承混合</t>
+          <t>鹏华价值精选股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000679</t>
+          <t>000431</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商丰利灵活配置混合A</t>
+          <t>鹏华品牌传承混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>74.65</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002416</t>
+          <t>000969</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商丰利灵活配置混合C</t>
+          <t>前海开源大安全核心精选灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>74.65</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006718</t>
+          <t>003343</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国融融盛龙头严选混合A</t>
+          <t>鹏华弘惠灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>9.71</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006719</t>
+          <t>512350</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国融融盛龙头严选混合C</t>
+          <t>兴业中证福建50ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9.71</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000969</t>
+          <t>001662</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>前海开源大安全核心精选灵活配置混合</t>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001069</t>
+          <t>000679</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华泰柏瑞消费成长灵活配置混合</t>
+          <t>招商丰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>86.08</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>512350</t>
+          <t>003857</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>兴业中证福建50ETF</t>
+          <t>前海开源周期优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>98.89</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001437</t>
+          <t>003344</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>易方达瑞享灵活配置混合I</t>
+          <t>鹏华弘惠灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001438</t>
+          <t>003004</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>易方达瑞享灵活配置混合E</t>
+          <t>招商睿祥定期开放混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001531</t>
+          <t>007678</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>招商安益灵活配置混合</t>
+          <t>泰达宏利品牌升级混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>76.03</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>160610</t>
+          <t>006718</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鹏华动力增长混合(LOF)</t>
+          <t>国融融盛龙头严选混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>88.06</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1360,15 +1670,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>71.11</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2.89</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002989</t>
+          <t>003858</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>融通通乾研究精选灵活配置混合</t>
+          <t>前海开源周期优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>003004</t>
+          <t>001531</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>招商睿祥定期开放混合</t>
+          <t>招商安益灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>46.37</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>76.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>007678</t>
+          <t>003760</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>泰达宏利品牌升级混合A</t>
+          <t>国泰中证500指数增强A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>83.55</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>9</v>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>007679</t>
+          <t>010037</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>泰达宏利品牌升级混合C</t>
+          <t>华泰柏瑞价值增长混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>83.55</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>003760</t>
+          <t>002416</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国泰中证500指数增强A</t>
+          <t>招商丰利灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>90.66</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>7</v>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1528,15 +1898,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>90.66</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>008382</t>
+          <t>007679</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>融通产业趋势股票</t>
+          <t>泰达宏利品牌升级混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>95.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7.88</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1574,26 +1964,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>008528</t>
+          <t>006719</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华泰柏瑞质量成长混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603737-三棵树.xlsx
+++ b/数据整理/stocks/A股/上证主板/603737-三棵树.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1972,7 +1973,6 @@
           <t>国融融盛龙头严选混合C</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>91.86</t>
@@ -1987,6 +1987,1086 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5603</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1489</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6866</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6324</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5919</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5178</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>46.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004112</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信国企活力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512350</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴业中证福建50ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603737-三棵树.xlsx
+++ b/数据整理/stocks/A股/上证主板/603737-三棵树.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3073,4 +3074,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7133</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6685</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003769</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603737-三棵树.xlsx
+++ b/数据整理/stocks/A股/上证主板/603737-三棵树.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3396,4 +3397,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603737-三棵树.xlsx
+++ b/数据整理/stocks/A股/上证主板/603737-三棵树.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3405,7 +3406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3416,17 +3417,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3436,14 +3457,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.16</v>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2453</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3452,14 +3495,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.42</v>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9308</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3468,14 +3533,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.51</v>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8453</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3484,13 +3571,797 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7632</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7543</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3868</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3832</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2851</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2664</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003769</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>11.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603737-三棵树.xlsx
+++ b/数据整理/stocks/A股/上证主板/603737-三棵树.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4260,7 +4261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4271,17 +4272,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4291,14 +4312,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.27</v>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6814</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4307,14 +4350,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3760</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.16</v>
       </c>
     </row>
     <row r="4">
@@ -4323,14 +4388,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.42</v>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4339,14 +4426,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.51</v>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4355,13 +4464,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2032</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>11.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603737-三棵树.xlsx
+++ b/数据整理/stocks/A股/上证主板/603737-三棵树.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4735,7 +4736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4746,17 +4747,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4766,14 +4787,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.38</v>
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7483</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4782,14 +4825,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.27</v>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0258</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4798,14 +4863,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.16</v>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9952</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4814,14 +4901,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.42</v>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4798</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4830,14 +4939,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>29</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.51</v>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4238</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -4846,13 +4977,1397 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3883</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3828</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3641</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3147</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008162</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014537</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银中国混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>29</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>11.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603737-三棵树.xlsx
+++ b/数据整理/stocks/A股/上证主板/603737-三棵树.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>8.73</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>2.38</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>7.27</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>2.16</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>6.42</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>5.51</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>11.85</v>
       </c>
     </row>
@@ -600,6 +617,1570 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银中国混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6738</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5498</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3993</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3829</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2865</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2627</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>016257</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>016462</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011482</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>34.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004801</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008162</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>34.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011483</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015365</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银动态策略混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004802</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014537</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银中国混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014845</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>016234</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015947</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>016461</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2097,7 +3678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2571,7 +4152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3425,7 +5006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3747,7 +5328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4827,7 +6408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5978,7 +7559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603737-三棵树.xlsx
+++ b/数据整理/stocks/A股/上证主板/603737-三棵树.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>4.43</v>
+        <v>15.34</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>8.73</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>2.38</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>7.27</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>2.16</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>6.42</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>5.51</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,428 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>29</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>11.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8468</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.8468</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0669</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4444</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3299</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1032,1692 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5712</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4302</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0132</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银中国混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8750</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8067</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6815</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5524</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4388</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3723</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3417</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3300</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2968</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2906</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016462</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2444</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2360</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2147</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000057</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银消费主题混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>017626</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011707</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159787</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>96.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014096</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>65.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015365</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银动态策略混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014537</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银中国混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>017197</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001363</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2180,7 +4281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3678,7 +5779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4152,7 +6253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5006,7 +7107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5328,7 +7429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6408,7 +8509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7557,402 +9658,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161606</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通行业景气混合A/B</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>89.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.8468</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009277</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通行业景气混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>89.59</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.8468</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002989</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通通乾研究精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.54</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.92</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0669</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008382</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>融通产业趋势股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4444</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001152</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>融通新区域新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3299</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001437</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合I</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1355</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001438</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1355</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010153</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0351</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010154</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>